--- a/draft_invoices.xlsx
+++ b/draft_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INV-000623</t>
+          <t>INV-000630</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,34 +483,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Meant 2 Be</t>
+          <t>KIDS CURATED APPAREL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TS-1114-1 RESHIP</t>
+          <t>KIDS 315</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$-110.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SMILE VARSITY PULLOVER BLUE, SMILE ALL DAY- PINK BLACK</t>
+          <t>MALIBU DISTRESSED CROP TOP OFF BLACK, SOHO TENNIS DISTRESSED CROP TOP ROYAL BLUE, STAR SMILEY DISTRESSED CROP TOP WHITE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INV-000630</t>
+          <t>INV-000658</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,34 +520,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KIDS CURATED APPAREL</t>
+          <t>Frankies on the Park</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KIDS 315</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$-110.0</t>
+          <t>$2112.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MALIBU DISTRESSED CROP TOP OFF BLACK, SOHO TENNIS DISTRESSED CROP TOP ROYAL BLUE, STAR SMILEY DISTRESSED CROP TOP WHITE</t>
+          <t xml:space="preserve">COWGIRL TEE , JOSHUA TREE TEE , HAVE A NICE DAY TEE , ELVIS AT SUN RECORDS TEE </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INV-000636</t>
+          <t>INV-000689</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,34 +557,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EVERAFTER</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9232</t>
+          <t>41582-D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$1663.2</t>
+          <t>$2917.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP , DISTRESSED STAR TEE </t>
+          <t xml:space="preserve">LOS ANGELES TIGER </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INV-000658</t>
+          <t>INV-000690</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -594,34 +594,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Frankies on the Park</t>
+          <t>DL LESTERS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>536076L</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$2112.0</t>
+          <t>$1122.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">COWGIRL TEE , JOSHUA TREE TEE , HAVE A NICE DAY TEE , ELVIS AT SUN RECORDS TEE </t>
+          <t>LOS ANGELES TIGER , CALIFORNIA- LA HEATHER GREY</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INV-000689</t>
+          <t>INV-000703</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,34 +631,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DENNY'S CHILDRENSWEAR</t>
+          <t>PINK LEMONADE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41582-D</t>
+          <t>SS1201233888 B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2917.2</t>
+          <t>$160.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">LOS ANGELES TIGER </t>
+          <t>SMILE ALL DAY-YELLOW (FINISHED EDGE TEE) WHITE, HAPPY COWBOY TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INV-000690</t>
+          <t>INV-000728</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,34 +668,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DL LESTERS</t>
+          <t>Marcias Attic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>536076L</t>
+          <t>1007 B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1122.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>LOS ANGELES TIGER , CALIFORNIA- LA HEATHER GREY</t>
+          <t xml:space="preserve">JOSHUA TREE TEE </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INV-000703</t>
+          <t>INV-000740</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,34 +705,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PINK LEMONADE</t>
+          <t>J &amp; S KIDSWEAR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SS1201233888 B</t>
+          <t>47262-D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$160.0</t>
+          <t>$1346.4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SMILE ALL DAY-YELLOW (FINISHED EDGE TEE) WHITE, HAPPY COWBOY TEE WHITE</t>
+          <t>CALIFORNIA DRIP CROP OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INV-000728</t>
+          <t>INV-000744</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,34 +742,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Marcias Attic</t>
+          <t>Sloane Street</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1007 B</t>
+          <t>1234 B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$462.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOSHUA TREE TEE </t>
+          <t xml:space="preserve">HAPPY HEARTS CROP , BOWIE WORLD TOUR '74 CROP , 9-HAPPY FACES TEE </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INV-000740</t>
+          <t>INV-000749</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,34 +779,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J &amp; S KIDSWEAR</t>
+          <t>Puddleducks</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>47262-D</t>
+          <t>AK01022352315</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1346.4</t>
+          <t>$704.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CALIFORNIA DRIP CROP OFF-BLACK</t>
+          <t>ALL SMILES TEE WHITE, COWGIRL TEE WHITE, HOWDY REPEAT TEE WHITE, HAPPY COWBOY TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INV-000744</t>
+          <t>INV-000755</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,34 +816,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sloane Street</t>
+          <t>THE CAROUSEL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1234 B</t>
+          <t>CK01022333799</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$462.0</t>
+          <t>$704.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAPPY HEARTS CROP , BOWIE WORLD TOUR '74 CROP , 9-HAPPY FACES TEE </t>
+          <t>ELVIS AT SUN RECORDS TEE WHITE, KEEP ON SMILING TEE BABY BLUE, HAVE A NICE DAY TEE OFF-BLK, HOWDY REPEAT TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INV-000749</t>
+          <t>INV-000757</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -858,29 +858,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Puddleducks</t>
+          <t>VANN &amp; LIV</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AK01022352315</t>
+          <t>CK31012351495</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$704.0</t>
+          <t>$394.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALL SMILES TEE WHITE, COWGIRL TEE WHITE, HOWDY REPEAT TEE WHITE, HAPPY COWBOY TEE WHITE</t>
+          <t>HOWDY REPEAT TEE WHITE, HAVE A NICE DAY TEE OFF-BLK, SMILE VARSITY PULLOVER ROYAL BLUE ROYAL BLUE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INV-000755</t>
+          <t>INV-000766</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,34 +890,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>THE CAROUSEL</t>
+          <t>BLU POPPY BOUTIQUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CK01022333799</t>
+          <t>1210 B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$704.0</t>
+          <t>$528.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ELVIS AT SUN RECORDS TEE WHITE, KEEP ON SMILING TEE BABY BLUE, HAVE A NICE DAY TEE OFF-BLK, HOWDY REPEAT TEE WHITE</t>
+          <t xml:space="preserve">BOWIE WORLD TOUR '74 CROP , KEEP ON SMILING TEE , JOSHUA TREE TEE , 9-HAPPY FACES TEE </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INV-000757</t>
+          <t>INV-000777</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,34 +927,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VANN &amp; LIV</t>
+          <t>Stephanie Kloset</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CK31012351495</t>
+          <t>1009 B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$394.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>HOWDY REPEAT TEE WHITE, HAVE A NICE DAY TEE OFF-BLK, SMILE VARSITY PULLOVER ROYAL BLUE ROYAL BLUE</t>
+          <t xml:space="preserve">JOSHUA TREE TEE </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INV-000766</t>
+          <t>INV-000798</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,34 +964,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BLU POPPY BOUTIQUE</t>
+          <t>GREENSTONES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1210 B</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOWIE WORLD TOUR '74 CROP , KEEP ON SMILING TEE , JOSHUA TREE TEE , 9-HAPPY FACES TEE </t>
+          <t>NYC BUBBLE TEE BLACK, BE COOL, BE KIND TEE WHITE, NY BEACHES TEE ROYAL BLUE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INV-000777</t>
+          <t>INV-000799</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,34 +1001,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stephanie Kloset</t>
+          <t>Groove</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1009 B</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$1320.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOSHUA TREE TEE </t>
+          <t>9-HAPPY FACES TEE II WHITE, NY BEACHES TEE ROYAL BLUE, MALIBU TENNIS CLUB TEE WHITE, W. VILLAGE TENNIS TEE WHITE, NYC BUBBLE TEE WHITE, CALIFORNIA CA TEE HEATHER GREY</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INV-000779</t>
+          <t>INV-000802</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,34 +1038,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EVERYTHING BUT THE PRINCESS</t>
+          <t>Kenzie &amp; Hope</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>THREADS-1002</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$660.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>YEEHAW REPEAT TEE WHITE, NEW YORK BUBBLE OFF-BLACK, HOWDY Y'ALL CROP IVORY, 9-HAPPY FACES CROP WHITE</t>
+          <t>THE UNDERGROUND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INV-000798</t>
+          <t>INV-000804</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1080,29 +1080,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GREENSTONES</t>
+          <t>MOD STUDIO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NYC BUBBLE TEE BLACK, BE COOL, BE KIND TEE WHITE, NY BEACHES TEE ROYAL BLUE</t>
+          <t>FREEDOM FESTIVAL TEE BLACK, CASSETTE TAPES TEE LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INV-000799</t>
+          <t>INV-000818</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1112,34 +1112,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Groove</t>
+          <t>THE LITTLE THINGS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$1320.0</t>
+          <t>$858.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES TEE II WHITE, NY BEACHES TEE ROYAL BLUE, MALIBU TENNIS CLUB TEE WHITE, W. VILLAGE TENNIS TEE WHITE, NYC BUBBLE TEE WHITE, CALIFORNIA CA TEE HEATHER GREY</t>
+          <t>SUNSET DREAMS FESTIVAL TEE IVORY, 9-HAPPY FACES TEE II WHITE, NEWPORT RUN CLUB TEE WHITE, LOS ANGELES TIGER TEE OFF-BLACK, HOWDY Y'ALL TEE IVORY., MALIBU TENNIS CLUB TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INV-000802</t>
+          <t>INV-000853</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,34 +1149,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kenzie &amp; Hope</t>
+          <t>PINK DOMINO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>THE UNDERGROUND CROP WHITE, HOWDY Y'ALL TEE IVORY, YEEHAW REPEAT TEE WHITE, CASSETTE TAPES CROP III LAVENDER</t>
+          <t>BE COOL, BE KIND CROP WHITE, THE UNDERGROUND TEE WHITE, 9-HAPPY FACES CROP OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INV-000804</t>
+          <t>INV-000859</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,34 +1186,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOD STUDIO</t>
+          <t>GREENSTONES</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1228 B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FREEDOM FESTIVAL TEE BLACK, CASSETTE TAPES TEE LAVENDER</t>
+          <t xml:space="preserve">BROOKLYN STRIPES TEE </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INV-000805</t>
+          <t>INV-000879</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,34 +1223,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MORTONS</t>
+          <t>THE SANDBOX</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>RR05012351149 B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$252.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FREEDOM FESTIVAL TEE OFF-BLACK, SUNSET DREAMS FESTIVAL TEE IVORY, MALIBU TENNIS CLUB TEE WHITE, NY BEACHES TEE ROYAL BLUE</t>
+          <t>ROCK N' ROLL WORLD TOUR BLACK, COWGIRL PULLOVER WHITE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INV-000818</t>
+          <t>INV-000895</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,34 +1260,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THE LITTLE THINGS</t>
+          <t>Infinity</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1031 B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$858.0</t>
+          <t>$220.0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL TEE IVORY, 9-HAPPY FACES TEE II WHITE, NEWPORT RUN CLUB TEE WHITE, LOS ANGELES TIGER TEE OFF-BLACK, HOWDY Y'ALL TEE IVORY., MALIBU TENNIS CLUB TEE WHITE</t>
+          <t>JOSHUA TREE CROP LAV, SUNSET DREAMS FESTIVAL CROP IVORY</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INV-000820</t>
+          <t>INV-000896</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,34 +1297,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Garage</t>
+          <t>AND JAMES KATONAH</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1232 B</t>
+          <t>1011 B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">COWGIRL TEE , JOSHUA TREE TEE , SADDLE UP BUTTERCUP CROP , BOWIE WORLD TOUR '74 CROP </t>
+          <t xml:space="preserve">9-HAPPY FACES CROP </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INV-000832</t>
+          <t>INV-000900</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,34 +1334,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>CHARLOTTE WEST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>THREADS 221</t>
+          <t>1020 B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$660.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BE COOL, BE KIND CROP WHITE, GRAFFITI HAPPY FACE CROP PINK, 9-HAPPY FACES CROP II WHITE</t>
+          <t xml:space="preserve">COWGIRL CROP </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INV-000833</t>
+          <t>INV-000902</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,34 +1371,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BLOSSOM &amp; HARRY</t>
+          <t>REFORM KIDS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1207 C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$1400.0</t>
+          <t>$462.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SUNFLOWER CROP GOLDEN YELLOW, LOVE LIPS CROP HEATHER GREY, SUNSET DREAMS FESTIVAL CROP IVORY, 9-HAPPY FACES CROP II WHITE, BE COOL, BE KIND CROP WHITE, GRAFFITI HAPPY FACE CROP PINK, THE UNDERGROUND CROP WHITE</t>
+          <t>JOSHUA TREE TEE , SUNSET DREAMS FESTIVAL TEE IVORY, BE COOL, BE KIND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INV-000853</t>
+          <t>INV-000903</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1408,34 +1408,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PINK DOMINO</t>
+          <t>DOWN 2 EARTH</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1206 C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$154.0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BE COOL, BE KIND CROP WHITE, THE UNDERGROUND TEE WHITE, 9-HAPPY FACES CROP OFF-BLACK</t>
+          <t xml:space="preserve">JOSHUA TREE TEE </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INV-000859</t>
+          <t>INV-000904</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,34 +1445,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GREENSTONES</t>
+          <t>MY KIDS KORNER</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1228 B</t>
+          <t>1210 C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$154.0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">BROOKLYN STRIPES TEE </t>
+          <t xml:space="preserve">9-HAPPY FACES CROP </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INV-000861</t>
+          <t>INV-000909</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,34 +1482,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EVERAFTER</t>
+          <t>B KIDS FW</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9232 B</t>
+          <t>RR10012362698 B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$831.6</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">DESTINATIONS CROP </t>
+          <t>BEVERLY HILLS TENNIS CLUB PULLOVER PPC2976ISCLUB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INV-000870</t>
+          <t>INV-000911</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,34 +1519,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FUNKY TYKES</t>
+          <t>BLOSSOM &amp; HARRY</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$108.0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LOVE LIPS CROP HEATHER GREY, THE UNDERGROUND CROP WHITE, NY BEACHES CROP ROYAL BLUE, GRAFFITI HAPPY FACE CROP PINK</t>
+          <t>DANCE OFF-BLK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INV-000874</t>
+          <t>INV-000915</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,34 +1556,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Magpies</t>
+          <t>KIDZ A LA MODE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>AK09012343214 B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HOWDY Y'ALL TEE IVORY, 9-HAPPY FACES TEE II WHITE, BE COOL, BE KIND TEE WHITE, YEEHAW REPEAT TEE WHITE</t>
+          <t>HAPPY COWBOY TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INV-000876</t>
+          <t>INV-000918</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LAF COLLECTIBLES</t>
+          <t>THE SHOP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>CK01022355448 B</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$968.0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">DESTINATIONS CROP , BOWIE WORLD TOUR '74 CROP </t>
+          <t>CALIFORNIA DRIP CROP OFF-BLACK, 9-HAPPY FACES CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INV-000879</t>
+          <t>INV-000921</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1630,34 +1630,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THE SANDBOX</t>
+          <t>A LA MODE - E. HAMPTON</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RR05012351149 B</t>
+          <t>1025 C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$252.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ROCK N' ROLL WORLD TOUR BLACK, COWGIRL PULLOVER WHITE</t>
+          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INV-000889</t>
+          <t>INV-000922</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,34 +1667,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SMALL WORLD</t>
+          <t>A LA MODE - NYC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1025 D</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$418.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DESTINATIONS CROP , LET'S DANCE BLACK, BEVERLY HILLS CROP TOP WHITE, OBSESSED CROP GREY, ROCK &amp; ROLL WORLD TOUR OFF-BLK</t>
+          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INV-000895</t>
+          <t>INV-000924</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1704,34 +1704,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Infinity</t>
+          <t>EVERHAYES TWEEN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1031 B</t>
+          <t>CK09012360930 B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$220.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>JOSHUA TREE CROP LAV, SUNSET DREAMS FESTIVAL CROP IVORY</t>
+          <t>9-HAPPY FACES CROP OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INV-000896</t>
+          <t>INV-000926</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1741,34 +1741,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AND JAMES KATONAH</t>
+          <t>LITTLE MAGNOLIA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1011 B</t>
+          <t>RR11012344515 B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$264.0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP </t>
+          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INV-000900</t>
+          <t>INV-000929</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1778,34 +1778,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CHARLOTTE WEST</t>
+          <t>KOUKLA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1020 B</t>
+          <t>2045 B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$110.0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">COWGIRL CROP </t>
+          <t xml:space="preserve">9-HAPPY FACES CROP </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INV-000902</t>
+          <t>INV-000932</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1815,34 +1815,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>REFORM KIDS</t>
+          <t>CUTIE PATOOTIE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1207 C</t>
+          <t>AC10012356063 B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$462.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>JOSHUA TREE TEE , SUNSET DREAMS FESTIVAL TEE IVORY, BE COOL, BE KIND CROP WHITE</t>
+          <t>9-HAPPY FACES TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INV-000903</t>
+          <t>INV-000934</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1852,34 +1852,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DOWN 2 EARTH</t>
+          <t>SOCA GIRL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1206 C</t>
+          <t>RR31012350694 C</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$154.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOSHUA TREE TEE </t>
+          <t>CALIFORNIA DRIP TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INV-000904</t>
+          <t>INV-000936</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1889,34 +1889,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MY KIDS KORNER</t>
+          <t>Wee the People</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1210 C</t>
+          <t>EB01022349994 C</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$154.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP </t>
+          <t>9-HAPPY FACES TEE OFF-BLACK, ELVIS AT SUN RECORDS CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INV-000909</t>
+          <t>INV-000937</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,34 +1926,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B KIDS FW</t>
+          <t>Basically Bows &amp; Bowties</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RR10012362698 B</t>
+          <t>PP.4 B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$96.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BEVERLY HILLS TENNIS CLUB PULLOVER PPC2976ISCLUB</t>
+          <t>9-HAPPY FACES TEE OFF-BLACK, CALIFORNIA DRIP TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INV-000911</t>
+          <t>INV-000941</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1963,34 +1963,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BLOSSOM &amp; HARRY</t>
+          <t>B FRIEND</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1061 B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$108.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>DANCE OFF-BLK</t>
+          <t>THE UNDERGROUND TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INV-000915</t>
+          <t>INV-000942</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2000,34 +2000,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KIDZ A LA MODE</t>
+          <t>Garage</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AK09012343214 B</t>
+          <t>1037 B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$880.0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HAPPY COWBOY TEE WHITE</t>
+          <t>CASSETTE TAPES CROP III LAVENDER, 9-HAPPY FACES CROP II WHITE, CASSETTE TAPES CROP II LIME, YEEHAW REPEAT CROP WHITE, HOWDY Y'ALL CROP IVORY</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INV-000918</t>
+          <t>INV-000944</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2037,34 +2037,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>THE SHOP</t>
+          <t>ON CLOUD 9</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CK01022355448 B</t>
+          <t>1093 B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$968.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CALIFORNIA DRIP CROP OFF-BLACK, 9-HAPPY FACES CROP WHITE</t>
+          <t>CASSETTE TAPES CROP III LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INV-000921</t>
+          <t>INV-000945</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2074,34 +2074,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A LA MODE - E. HAMPTON</t>
+          <t>Peek A Boo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1025 C</t>
+          <t>1036 B &amp; 1005 B</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$638.0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t xml:space="preserve">CASSETTE TAPES CROP BANANA, CASSETTE TAPES TEE LAVENDER, ELVIS AT SUN RECORDS CROP </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INV-000922</t>
+          <t>INV-000946</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2111,34 +2111,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A LA MODE - NYC</t>
+          <t>RHYS + RHEA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1025 D</t>
+          <t>1063 B</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t>FREEDOM FESTIVAL TEE OFF-BLACK, CASSETTE TAPES TEE II LIME, HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INV-000923</t>
+          <t>INV-000947</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C'est Chou by Sienna</t>
+          <t>Stephanie Kloset</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>THREADS 100 B</t>
+          <t>1030 B</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOWIE WORLD TOUR '74 CROP </t>
+          <t>SUNFLOWER CROP GOLDEN YELLOW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INV-000924</t>
+          <t>INV-000948</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EVERHAYES TWEEN</t>
+          <t>WINGED MONKEY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CK09012360930 B</t>
+          <t>1067 B</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2205,14 +2205,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES CROP OFF-BLACK</t>
+          <t>CASSETTE TAPES CROP III LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INV-000925</t>
+          <t>INV-000957</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2222,34 +2222,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DISCO</t>
+          <t>Perfect Trading Co.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1208 C</t>
+          <t>1016 C</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>$742.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">BROOKLYN STRIPES TEE , COWGIRL CROP , COWGIRL PULLOVER , BOWIE WORLD TOUR '74 TEE </t>
+          <t xml:space="preserve">JOSHUA TREE CROP </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INV-000926</t>
+          <t>INV-000959</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2259,34 +2259,34 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LITTLE MAGNOLIA</t>
+          <t>East West Girl</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>RR11012344515 B</t>
+          <t>RR09012337888 B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t>JOSHUA TREE TEE LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INV-000929</t>
+          <t>INV-000962</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2296,34 +2296,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>KOUKLA</t>
+          <t>DOWN 2 EARTH</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2045 B</t>
+          <t>1047 B</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>$110.0</t>
+          <t>$154.0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP </t>
+          <t>CASSETTE TAPES CROP III LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INV-000931</t>
+          <t>INV-000963</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2333,34 +2333,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Etoile on 17th</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>THREADS 303 C</t>
+          <t>THREADS 305 C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELVIS AT SUN RECORDS CROP , BOWIE WORLD TOUR '74 CROP </t>
+          <t xml:space="preserve">BROOKLYN STRIPES TEE </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INV-000932</t>
+          <t>INV-000964</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2370,34 +2370,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CUTIE PATOOTIE</t>
+          <t>Groove</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AC10012356063 B</t>
+          <t>1229 C</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES TEE OFF-BLACK</t>
+          <t xml:space="preserve">9-HAPPY FACES TEE , BOWIE WORLD TOUR '74 CROP </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INV-000934</t>
+          <t>INV-000965</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2407,17 +2407,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOCA GIRL</t>
+          <t>Magpies</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RR31012350694 C</t>
+          <t>1105 B</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2427,14 +2427,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CALIFORNIA DRIP TEE OFF-BLACK</t>
+          <t>HAPPY COWBOY TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INV-000936</t>
+          <t>INV-000968</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2444,34 +2444,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wee the People</t>
+          <t>MILO &amp; OLIVE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>EB01022349994 C</t>
+          <t>CK08012342479 C</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES TEE OFF-BLACK, ELVIS AT SUN RECORDS CROP WHITE</t>
+          <t>COWGIRL TEE WHITE, ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INV-000937</t>
+          <t>INV-000969</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2481,34 +2481,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Basically Bows &amp; Bowties</t>
+          <t>Beyond The Rainbow</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PP.4 B</t>
+          <t>RR05032346253</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES TEE OFF-BLACK, CALIFORNIA DRIP TEE OFF-BLACK</t>
+          <t>9-HAPPY FACES TEE OFF-BLACK, HAVE A NICE DAY TEE PPC1207P1-302, ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INV-000938</t>
+          <t>INV-000971</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2518,34 +2518,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>J &amp; S KIDSWEAR</t>
+          <t>Eat Your Spinach</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>47262-D I</t>
+          <t>1048 &amp; 1550 B</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$2244.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>BOWIE WORLD TOUR '74 CROP WHITE</t>
+          <t>BE COOL, BE KIND TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INV-000939</t>
+          <t>INV-000974</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2555,34 +2555,34 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Frankies on the Park</t>
+          <t>CAKEWISH</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1097 B</t>
+          <t>CK08012352144 C</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>$1584.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY, HOWDY Y'ALL TEE IVORY, HAVE MORE FUN TEE WHITE, GRAFFITI HAPPY FACE TEE PINK</t>
+          <t>CALIFORNIA DRIP TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INV-000940</t>
+          <t>INV-000975</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2592,34 +2592,34 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DISCO</t>
+          <t>IN BETWEEN</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1066 B</t>
+          <t>AK20022345388 B</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>YEEHAW REPEAT CROP WHITE, BE COOL, BE KIND CROP WHITE, CASSETTE TAPES CROP III LAVENDER</t>
+          <t>HAPPY COWBOY TEE WHITE, ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INV-000941</t>
+          <t>INV-000976</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2629,34 +2629,34 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B FRIEND</t>
+          <t>THE LITTLE THINGS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1061 B</t>
+          <t>1019 C</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$418.0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>THE UNDERGROUND TEE WHITE</t>
+          <t xml:space="preserve">9-HAPPY FACES CROP , JOSHUA TREE CROP LAV, ELVIS AT SUN RECORDS CROP </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INV-000942</t>
+          <t>INV-000978</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2666,34 +2666,34 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Garage</t>
+          <t>AUSTYN PARKER</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1037 B</t>
+          <t>2784 B</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$880.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CASSETTE TAPES CROP III LAVENDER, 9-HAPPY FACES CROP II WHITE, CASSETTE TAPES CROP II LIME, YEEHAW REPEAT CROP WHITE, HOWDY Y'ALL CROP IVORY</t>
+          <t>BROOKLYN STRIPES CROP NAVY</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INV-000943</t>
+          <t>INV-000982</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2703,34 +2703,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MY KIDS KORNER</t>
+          <t>WARD TERRILEE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1033 B</t>
+          <t>1538 B</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$308.0</t>
+          <t>$80.0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY, 9-HAPPY FACES CROP II WHITE</t>
+          <t>BROOKLYN RED</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INV-000944</t>
+          <t>INV-000983</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2740,34 +2740,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ON CLOUD 9</t>
+          <t>LUCKY PENNY</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1093 B</t>
+          <t>1537 B</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CASSETTE TAPES CROP III LAVENDER</t>
+          <t>JOSHUA TREE CROP LAV</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INV-000945</t>
+          <t>INV-000984</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2777,34 +2777,34 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Peek A Boo</t>
+          <t>LUCKY PENNY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1036 B &amp; 1005 B</t>
+          <t>1536 C</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$638.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASSETTE TAPES CROP BANANA, CASSETTE TAPES TEE LAVENDER, ELVIS AT SUN RECORDS CROP </t>
+          <t>HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INV-000946</t>
+          <t>INV-000988</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2814,34 +2814,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RHYS + RHEA</t>
+          <t>PRECIOUS CARGO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1063 B</t>
+          <t>1073 B</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$352.0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>FREEDOM FESTIVAL TEE OFF-BLACK, CASSETTE TAPES TEE II LIME, HAVE MORE FUN TEE WHITE</t>
+          <t>GRAFFITI HAPPY FACE TEE PINK, HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INV-000947</t>
+          <t>INV-000990</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2851,34 +2851,34 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Stephanie Kloset</t>
+          <t>Marcias Attic</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1030 B</t>
+          <t>1039 B</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SUNFLOWER CROP GOLDEN YELLOW</t>
+          <t>NEWPORT RUN CLUB TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INV-000948</t>
+          <t>INV-000991</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2888,17 +2888,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>WINGED MONKEY</t>
+          <t>Sloane Street</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1067 B</t>
+          <t>1034 B</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2908,14 +2908,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CASSETTE TAPES CROP III LAVENDER</t>
+          <t>HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INV-000952</t>
+          <t>INV-000992</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2925,34 +2925,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>My Tribe Boutique</t>
+          <t>Perfect Trading Co.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CK23032352638</t>
+          <t>1123 B</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$528.0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>HAVE A NICE DAY CROP OFF-BLACK, ALL SMILES CROP WHITE</t>
+          <t>SMILE SUNFLOWER TEE GOLDEN YELLOW, BE COOL, BE KIND TEE WHITE, HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INV-000957</t>
+          <t>INV-000994</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2962,34 +2962,34 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Perfect Trading Co.</t>
+          <t>Love, Frankie</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1016 C</t>
+          <t>PP.6 B</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$264.0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOSHUA TREE CROP </t>
+          <t>ALL SMILES TEE WHITE, COWGIRL CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INV-000958</t>
+          <t>INV-000997</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2999,34 +2999,34 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SKIPPER &amp; SCOUT</t>
+          <t>FREE TO FROLIC TOO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>THREADS 301 KIDS C</t>
+          <t>RR31012352866 B</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">COWGIRL CROP </t>
+          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INV-000959</t>
+          <t>INV-000998</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3036,34 +3036,34 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>East West Girl</t>
+          <t>GLITTERBOX CHILDREN'S BOUTIQUE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RR09012337888 B</t>
+          <t>AK08022346044 C</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$198.0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>JOSHUA TREE TEE LAVENDER</t>
+          <t>ELVIS AT SUN RECORDS CROP WHITE, HAPPY COWBOY TEE WHITE, SMILE ALL DAY- PINK BLACK</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INV-000960</t>
+          <t>INV-001005</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3073,34 +3073,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DEAR HANNAH</t>
+          <t>L.A.GREEN</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AK21032340765</t>
+          <t>PP.7 B</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>$1672.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NEWPORT TENNIS CROP PPC1208P1-501, CALIFORNIA CA CROP HEATHER GREY, MALIBU TENNIS CLUB CROP PPC1210P2-124</t>
+          <t xml:space="preserve">ELVIS AT SUN RECORDS TEE </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INV-000961</t>
+          <t>INV-001006</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3110,34 +3110,34 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Kid Biz</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>THREADS 224-1 B</t>
+          <t>47297-D</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$10098.0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>HOWDY Y'ALL CROP WHITE, 9-HAPPY FACES CROP II WHITE</t>
+          <t>WILD AND FREE TIGER OFF-BLACK, MALIBU MOTERS OFF-BLACK, NEW YORK CITY CROP TEE HEATHER GREY</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INV-000962</t>
+          <t>INV-001012</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3147,34 +3147,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DOWN 2 EARTH</t>
+          <t>CLOVER TWEEN</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1047 B</t>
+          <t>AK27032345490 B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$154.0</t>
+          <t>$264.0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CASSETTE TAPES CROP III LAVENDER</t>
+          <t>FREEDOM FESTIVAL TEE OFF-BLACK, COWGIRL CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INV-000963</t>
+          <t>INV-001013</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3184,17 +3184,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Etoile on 17th</t>
+          <t>Aiden + Ollie</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>THREADS 305 C</t>
+          <t>CK05032360936 B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3204,14 +3204,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">BROOKLYN STRIPES TEE </t>
+          <t>COWBOY EMOJI TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INV-000964</t>
+          <t>INV-001014</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3221,34 +3221,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Groove</t>
+          <t>C'est Chou by Sienna</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1229 C</t>
+          <t>1062 B</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$88.0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES TEE , BOWIE WORLD TOUR '74 CROP </t>
+          <t>CASSETTE TAPES CROP III LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INV-000965</t>
+          <t>INV-001019</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3258,34 +3258,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Magpies</t>
+          <t>LIZ FARKAS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1105 B</t>
+          <t>ASSORTED SAMPLE SALE CONSIGNMENT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$3828.0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>HAPPY COWBOY TEE WHITE</t>
+          <t>ASSORTED SAMPLES ASSORTED</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INV-000967</t>
+          <t>INV-001024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3295,34 +3295,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-27</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ashley's Childrens Boutique</t>
+          <t>LIZ FARKAS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AK05032346881</t>
+          <t>ASSORTED SAMPLE SALE CONSIGNMENT 2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$2112.0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>KIND PEOPLE TEE VINTAGE PINK, HAVE A NICE DAY TEE PPC1207P1-302</t>
+          <t>ASSORTED KIDS SAMPLES TEES ASSORTED</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INV-000968</t>
+          <t>INV-001025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MILO &amp; OLIVE</t>
+          <t>Meant 2 Be</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CK08012342479 C</t>
+          <t>THREADS 3723 C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3352,14 +3352,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>COWGIRL TEE WHITE, ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t xml:space="preserve">CALIFORNIA DRIP CROP </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INV-000969</t>
+          <t>INV-001029</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3369,34 +3369,34 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-05-04</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Beyond The Rainbow</t>
+          <t>CAKEWISH</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>RR05032346253</t>
+          <t>PP.9</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$418.0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9-HAPPY FACES TEE OFF-BLACK, HAVE A NICE DAY TEE PPC1207P1-302, ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t>HAPPY COWBOY CROP WHITE, HOWDY REPEAT CROP WHITE, MALIBU TENNIS CLUB CROP WHITE, SUNFLOWER CROP GOLDEN YELLOW</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INV-000971</t>
+          <t>INV-001031</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Eat Your Spinach</t>
+          <t>ALLIE + THEA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1048 &amp; 1550 B</t>
+          <t>CK22022350759 C</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3426,14 +3426,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BE COOL, BE KIND TEE WHITE</t>
+          <t>9-HAPPY FACES TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INV-000973</t>
+          <t>INV-001032</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3443,34 +3443,34 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ALLIE + THEA</t>
+          <t>Frankies on the Park</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CK22022350759 B</t>
+          <t>1097 C</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$276.0</t>
+          <t>$792.0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>COWGIRL PULLOVER WHITE, 9-HAPPY FACES TEE OFF-BLACK</t>
+          <t>HOWDY Y'ALL TEE IVORY, HAVE MORE FUN TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INV-000974</t>
+          <t>INV-001033</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3480,17 +3480,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CAKEWISH</t>
+          <t>Elegant Child</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CK08012352144 C</t>
+          <t>AK22032355447 C</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3500,14 +3500,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CALIFORNIA DRIP TEE OFF-BLACK</t>
+          <t>9-HAPPY FACES CROP OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INV-000975</t>
+          <t>INV-001034</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3517,34 +3517,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>IN BETWEEN</t>
+          <t>DISCO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AK20022345388 B</t>
+          <t>1208 D</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$198.0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>HAPPY COWBOY TEE WHITE, ELVIS AT SUN RECORDS TEE WHITE</t>
+          <t xml:space="preserve">BROOKLYN STRIPES TEE </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INV-000976</t>
+          <t>INV-001035</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3554,34 +3554,34 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>THE LITTLE THINGS</t>
+          <t>Garage</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1019 C</t>
+          <t>1232 C</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$418.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP , JOSHUA TREE CROP LAV, ELVIS AT SUN RECORDS CROP </t>
+          <t xml:space="preserve">JOSHUA TREE TEE </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>INV-000977</t>
+          <t>INV-001038</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3591,34 +3591,34 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Meant 2 Be</t>
+          <t>Kenzie &amp; Hope</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>THREADS 3723 B</t>
+          <t>1074 B</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$704.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOWDY Y'ALL CROP IVORY, YEEHAW REPEAT CROP WHITE, CALIFORNIA DRIP CROP </t>
+          <t>HOWDY Y'ALL TEE IVORY, YEEHAW REPEAT TEE WHITE, CASSETTE TAPES CROP III LAVENDER</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>INV-000978</t>
+          <t>INV-001039</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3628,34 +3628,34 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AUSTYN PARKER</t>
+          <t>LITTLE FEET BOUTIQUE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2784 B</t>
+          <t>PP.8 B</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$66.0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BROOKLYN STRIPES CROP NAVY</t>
+          <t xml:space="preserve">ELVIS AT SUN RECORDS TEE </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>INV-000979</t>
+          <t>INV-001041</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3665,34 +3665,34 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lily Pads</t>
+          <t>Magpies</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CK3028795</t>
+          <t>1104 B</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$704.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL TEE PPC1210P2-106, DISTRESSED STAR CROP WHITE, CALIFORNIA DRIP CROP OFF-BLACK, COWGIRL TEE WHITE</t>
+          <t>HOWDY Y'ALL TEE IVORY, BE COOL, BE KIND TEE WHITE, YEEHAW REPEAT TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INV-000982</t>
+          <t>INV-001042</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3702,34 +3702,34 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>WARD TERRILEE</t>
+          <t>TEAK &amp; IVY</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1538 B</t>
+          <t>CK3101234297 C</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$80.0</t>
+          <t>$120.0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BROOKLYN RED</t>
+          <t>CALIFORNIA DRIP TEE OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>INV-000983</t>
+          <t>INV-001043</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3739,34 +3739,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LUCKY PENNY</t>
+          <t>MORTONS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1537 B</t>
+          <t>1071 B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$396.0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>JOSHUA TREE CROP LAV</t>
+          <t>FREEDOM FESTIVAL TEE OFF-BLACK, MALIBU TENNIS CLUB TEE WHITE, NY BEACHES TEE ROYAL BLUE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INV-000984</t>
+          <t>INV-001044</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3776,34 +3776,34 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LUCKY PENNY</t>
+          <t>Lily Pads</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1536 B</t>
+          <t>CK3028795 B</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$176.0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY, 9-HAPPY FACES CROP II WHITE, HAVE MORE FUN TEE WHITE</t>
+          <t>CALIFORNIA DRIP CROP OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INV-000985</t>
+          <t>INV-001047</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3813,34 +3813,34 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>BEAN 2 TWEEN</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1001 C</t>
+          <t>48752-D B</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$154.0</t>
+          <t>$5016.0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve">BOWIE WORLD TOUR '74 TEE </t>
+          <t>PALM SPRING TENNIS CLUB CROP HEATHER GREY, HAPPY FACE CROP PINK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INV-000986</t>
+          <t>INV-001048</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3850,34 +3850,34 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BEAN 2 TWEEN</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1029 B</t>
+          <t>48753-L B</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$154.0</t>
+          <t>$1716.0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY</t>
+          <t>9-HAPPY FACES CROP II WHITE, PALM SPRING TENNIS CLUB CROP HEATHER GREY, MALIBU TENNIS CLUB CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INV-000988</t>
+          <t>INV-001049</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3887,34 +3887,34 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PRECIOUS CARGO</t>
+          <t>GLITTERBOX CHILDREN'S BOUTIQUE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1073 B</t>
+          <t>CK5463716</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$352.0</t>
+          <t>$110.0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>GRAFFITI HAPPY FACE TEE PINK, HAVE MORE FUN TEE WHITE</t>
+          <t>MALIBU TENNIS CLUB CROP WHITE, 9-HAPPY FACES CROP OFF BLACK, HOWDY REPEAT CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>INV-000990</t>
+          <t>INV-001051</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3924,34 +3924,34 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Marcias Attic</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1039 B</t>
+          <t>20676 B</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$176.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NEWPORT RUN CLUB TEE WHITE</t>
+          <t xml:space="preserve">ELVIS AT SUN RECORDS CROP </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INV-000991</t>
+          <t>INV-001052</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3961,34 +3961,34 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sloane Street</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1034 B</t>
+          <t>48783</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$32068.8</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HAVE MORE FUN TEE WHITE</t>
+          <t>KIDS LOS ANGELES 1989 PINK, KIDS NYC PRINCE STREET , KIDS NEW YORK NEON PINK OFF-BLACK, KIDS CALIFORNA DREAM WHITE, KIDS NYC BLOCK PRINT , KIDS MICHIGAN ROYAL BLUE, KIDS STAR SMILEY WHITE, KIDS CALIFORNIA WEST COAST WHITE, KIDS BROOKLYN OLD ENGILSH NAVY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INV-000992</t>
+          <t>INV-001053</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3998,34 +3998,34 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Perfect Trading Co.</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1123 B</t>
+          <t>48784</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$528.0</t>
+          <t>$7833.6</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SMILE SUNFLOWER TEE GOLDEN YELLOW, BE COOL, BE KIND TEE WHITE, HAVE MORE FUN TEE WHITE</t>
+          <t>KIDS WOODSTOCK SUMMER OF LOVE WHITE, KIDS WOODSTOCK PEACE LOVE WHITE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>INV-000993</t>
+          <t>INV-001054</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4035,34 +4035,34 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>XANADU</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1552 B</t>
+          <t>1008119</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$88.0</t>
+          <t>$7290.0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY</t>
+          <t>LOVE TEXT PULLOVER NAVY, LOVE TEXT PULLOVER NAVY, LOVE TEXT PULLOVER NAVY, LOVE TEXT PULLOVER NAVY, WONDER WOMAN PULLOVER WHITE, WONDER WOMAN PULLOVER WHITE, WONDER WOMAN PULLOVER WHITE, WONDER WOMAN PULLOVER WHITE, PARK CITY PULLOVER RED, PARK CITY PULLOVER RED, PARK CITY PULLOVER RED, PARK CITY PULLOVER RED, TIGER WORLD TOUR PULLOVER OFF-BLACK, TIGER WORLD TOUR PULLOVER OFF-BLACK, TIGER WORLD TOUR PULLOVER OFF-BLACK, TIGER WORLD TOUR PULLOVER OFF-BLACK, WORLD TOUR EAGLE CROP PULLOVER WHITE, WORLD TOUR EAGLE CROP PULLOVER WHITE, WORLD TOUR EAGLE CROP PULLOVER WHITE, WORLD TOUR EAGLE CROP PULLOVER WHITE, RODEO DRIVE CALI ROYAL BLUE, RODEO DRIVE CALI ROYAL BLUE, RODEO DRIVE CALI ROYAL BLUE, RODEO DRIVE CALI ROYAL BLUE, LA CIRCLE CROP PULLOVER ROYAL BLUE, LA CIRCLE CROP PULLOVER ROYAL BLUE, LA CIRCLE CROP PULLOVER ROYAL BLUE, EAST COAST PULLOVER HEATHER GREY, EAST COAST PULLOVER HEATHER GREY, EAST COAST PULLOVER HEATHER GREY, EAST COAST PULLOVER HEATHER GREY, BLONDIE HEART PULLOVER OFF-BLACK, BLONDIE HEART PULLOVER OFF-BLACK, BLONDIE HEART PULLOVER OFF-BLACK, BLONDIE HEART PULLOVER OFF-BLACK, BOLT SPLATTER PULLOVER WHITE/PAINT SPLATTER, BOLT SPLATTER PULLOVER WHITE/PAINT SPLATTER, BOLT SPLATTER PULLOVER WHITE/PAINT SPLATTER, EAGLE WORLD TOUR PULLOVER WHITE, EAGLE WORLD TOUR PULLOVER WHITE, EAGLE WORLD TOUR PULLOVER WHITE, EAGLE WORLD TOUR PULLOVER WHITE, FRIENDS GREENWICH VILLAGE PULLOVER OFF-BLACK, FRIENDS GREENWICH VILLAGE PULLOVER OFF-BLACK, FRIENDS GREENWICH VILLAGE PULLOVER OFF-BLACK, FRIENDS GREENWICH VILLAGE PULLOVER OFF-BLACK, BOLT SPLATTER CROP PULLOVER WHITE/PAINT SPLATTER, BOLT SPLATTER CROP PULLOVER WHITE/PAINT SPLATTER, BOLT SPLATTER CROP PULLOVER WHITE/PAINT SPLATTER, BOLT SPLATTER CROP PULLOVER WHITE/PAINT SPLATTER, HERE FOR THE GOOD TIMES PULLOVER HEATHER GREY, HERE FOR THE GOOD TIMES PULLOVER HEATHER GREY, HERE FOR THE GOOD TIMES PULLOVER HEATHER GREY, VERMONT PINK, VERMONT PINK, SMILE ALL DAY PULLOVER BLACK, SMILE ALL DAY PULLOVER BLACK, SMILE ALL DAY PULLOVER BLACK, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, HAPPY FACE CROP OFF-BLACK, HAPPY FACE CROP OFF-BLACK, OBSESSED CROP HEATHER GREY, OBSESSED CROP HEATHER GREY, OBSESSED CROP HEATHER GREY, OBSESSED CROP HEATHER GREY, MALIBU CROP TOP OFF-BLACK, MALIBU CROP TOP OFF-BLACK, MALIBU CROP TOP OFF-BLACK, MALIBU CROP TOP OFF-BLACK, ROCK N' ROLL WORLD TOUR OFF-BLACK, ROCK N' ROLL WORLD TOUR OFF-BLACK, ROCK N' ROLL WORLD TOUR OFF-BLACK, ROCK N' ROLL WORLD TOUR OFF-BLACK, PEACE AND HAPPINESS WHITE, PEACE AND HAPPINESS WHITE, PEACE AND HAPPINESS WHITE, PEACE AND HAPPINESS WHITE, BELIEVE IN YOURSELF WHITE, BELIEVE IN YOURSELF WHITE, BELIEVE IN YOURSELF WHITE, BELIEVE IN YOURSELF WHITE, SOHO TENNIS ROYAL BLUE, SOHO TENNIS ROYAL BLUE, SOHO TENNIS ROYAL BLUE, SOHO TENNIS ROYAL BLUE, YIN-YANG SKY RED, YIN-YANG SKY RED, YIN-YANG SKY RED, YIN-YANG SKY RED, MALIBU GRADIENT CROP WHITE, MALIBU GRADIENT CROP WHITE, MALIBU GRADIENT CROP WHITE, MALIBU GRADIENT CROP WHITE, HAPPY CROP ROYAL BLUE, HAPPY CROP ROYAL BLUE, HAPPY CROP ROYAL BLUE, HAPPY CROP ROYAL BLUE, LET'S DANCE OFF-BLACK, LET'S DANCE OFF-BLACK, FRIENDS GREENWICH VILLAGE OFF-BLACK, FRIENDS GREENWICH VILLAGE OFF-BLACK, FRIENDS GREENWICH VILLAGE OFF-BLACK, FRIENDS GREENWICH VILLAGE OFF-BLACK, BEVERLY HILLS AIR BRUSH WHITE, BEVERLY HILLS AIR BRUSH WHITE, BEVERLY HILLS AIR BRUSH WHITE, JANIS JOPLIN PEACE &amp; LOVE MINERAL GREY, JANIS JOPLIN PEACE &amp; LOVE MINERAL GREY, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, LIGHTENING TIGER OFF-BLACK, ALL WE NEED IS LOVE WHITE, ALL WE NEED IS LOVE WHITE, HAMPTONS HOUSE CROP TOP IVORY, HAMPTONS HOUSE CROP TOP IVORY, HAMPTONS HOUSE CROP TOP IVORY, SMILE MORE HEATHER GREY, SMILE MORE HEATHER GREY, SMILE MORE HEATHER GREY, PARDON MY FRENCH PULLOVER WHITE, PARDON MY FRENCH PULLOVER WHITE, PARDON MY FRENCH PULLOVER WHITE, PARDON MY FRENCH PULLOVER WHITE, DAVID BOWIE 1974 WORLD TOUR WHITE, DAVID BOWIE 1974 WORLD TOUR WHITE, DAVID BOWIE 1974 WORLD TOUR WHITE, DAVID BOWIE 1974 WORLD TOUR WHITE, LEOPARD HAPPY FACE CROP PULLOVER OFF-BLACK, LEOPARD HAPPY FACE CROP PULLOVER OFF-BLACK, LEOPARD HAPPY FACE CROP PULLOVER OFF-BLACK, LEOPARD HAPPY FACE CROP PULLOVER OFF-BLACK, LEOPARD HAPPY FACE PULLOVER OFF-BLACK, LEOPARD HAPPY FACE PULLOVER OFF-BLACK, LEOPARD HAPPY FACE PULLOVER OFF-BLACK, LEOPARD HAPPY FACE PULLOVER OFF-BLACK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INV-000994</t>
+          <t>INV-001055</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4072,915 +4072,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-05-20</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Love, Frankie</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PP.6 B</t>
+          <t>1008121</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$567.6</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ALL SMILES TEE WHITE, COWGIRL CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>INV-000996</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Elegant Child</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>AK22032355447 B</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>$506.0</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>COWGIRL CROP WHITE, FREEDOM FESTIVAL TEE OFF-BLACK, 9-HAPPY FACES CROP OFF-BLACK, CALIFORNIA CA CROP HEATHER GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>INV-000997</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>FREE TO FROLIC TOO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>RR31012352866 B</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>ELVIS AT SUN RECORDS TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>INV-000998</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GLITTERBOX CHILDREN'S BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>AK08022346044 C</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>$198.0</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>ELVIS AT SUN RECORDS CROP WHITE, HAPPY COWBOY TEE WHITE, SMILE ALL DAY- PINK BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>INV-000999</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>TEAK &amp; IVY</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CK3101234297 B</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>$240.0</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>BOWIE WORLD TOUR '74 TEE WHITE, CALIFORNIA DRIP TEE OFF-BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>INV-001000</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>TEAK &amp; IVY</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>CK21032358488 B</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>COWGIRL CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>INV-001001</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>TEAK &amp; IVY</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>CK21032359324 B</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>NEWPORT TENNIS CROP PPC1208P1-501</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>INV-001002</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>KIDRAGEOUS</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1532 B</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>SUNSET DREAMS FESTIVAL CROP IVORY</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>INV-001003</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ALLIE + THEA</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>CK3354504</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>$176.0</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>HOWDY REPEAT TEE PPC1212P1-802</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>INV-001005</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2023-04-14</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>L.A.GREEN</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>PP.7 B</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ELVIS AT SUN RECORDS TEE </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>INV-001006</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>DENNY'S CHILDRENSWEAR</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>47297-D</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>$16830.0</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WILD AND FREE TIGER OFF-BLACK, MALIBU MOTERS OFF-BLACK, NEW YORK CITY CROP TEE HEATHER GREY, CALIFORNIA, CA WHITE, SPRAY PAINT HAPPY FACE </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>INV-001011</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>SKIPPER &amp; SCOUT</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>THREADS 2323 C</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>$176.0</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>BE COOL, BE KIND TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>INV-001012</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>CLOVER TWEEN</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>AK27032345490 B</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>$264.0</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>FREEDOM FESTIVAL TEE OFF-BLACK, COWGIRL CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>INV-001013</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Aiden + Ollie</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>CK05032360936 B</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>COWBOY EMOJI TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>INV-001014</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>C'est Chou by Sienna</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1062 B</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>$88.0</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPES CROP III LAVENDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>INV-001015</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CHARLOTTE WEST</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1057 B</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>$544.0</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COWGIRL PULLOVER WHITE, BOWIE WORLD TOUR '74 CROP WHITE, COWGIRL CROP </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>INV-001016</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>CHARLOTTE WEST</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1059 B</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>$176.0</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>YEEHAW REPEAT CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>INV-001017</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>LITTLE FEET BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>PP.8</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>$242.0</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SADDLE UP BUTTERCUP TEE IVORY, KIND PEOPLE TEE , ELVIS AT SUN RECORDS TEE </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>INV-001018</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Ashley's Childrens Boutique</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>AK05032346881 B</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>$176.0</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>ALL SMILES TEE WHITE, ELVIS AT SUN RECORDS TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>INV-001019</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>LIZ FARKAS</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>ASSORTED SAMPLE SALE CONSIGNMENT</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>$3828.0</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>ASSORTED SAMPLES ASSORTED</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>INV-001020</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>SMALL WORLD</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1533 B</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>INV-001021</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Stellar</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>20676</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>$528.0</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9-HAPPY FACES CROP , HAPPY COWBOY CREW TEE </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>INV-001022</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Love, Frankie</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>CK6835074</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>$792.0</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>PALM SPRING TENNIS CLUB CROP GREY, HAVE A NICE DAY CROP OFF-BLACK, HOWDY REPEAT CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>INV-001023</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2023-04-27</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Such A Deal</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>1553</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>$330.0</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>LOVE LIPS CROP HEATHER GREY, GRAFFITI HAPPY FACE TEE PINK, CALIFORNIA CA CROP GREY, HAVE MORE FUN CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>INV-001024</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2023-04-27</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>LIZ FARKAS</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>ASSORTED SAMPLE SALE CONSIGNMENT 2</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>$2112.0</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>ASSORTED KIDS SAMPLES TEES ASSORTED</t>
+          <t>LOVE TEXT PULLOVER NAVY, WONDER WOMAN PULLOVER WHITE, PARK CITY PULLOVER RED, TIGER WORLD TOUR PULLOVER OFF-BLACK, WORLD TOUR EAGLE CROP PULLOVER WHITE, RODEO DRIVE CALI ROYAL BLUE, LA CIRCLE CROP PULLOVER ROYAL BLUE, EAST COAST PULLOVER HEATHER GREY, BLONDIE HEART PULLOVER OFF-BLACK, BOLT SPLATTER PULLOVER WHITE/PAINT SPLATTER, EAGLE WORLD TOUR PULLOVER WHITE, FRIENDS GREENWICH VILLAGE PULLOVER OFF-BLACK, BOLT SPLATTER CROP PULLOVER WHITE/PAINT SPLATTER, HERE FOR THE GOOD TIMES PULLOVER HEATHER GREY, VERMONT PINK, SMILE ALL DAY PULLOVER BLACK, LIGHTENING TIGER OFF-BLACK, HAPPY FACE CROP OFF-BLACK, OBSESSED CROP HEATHER GREY, MALIBU CROP TOP OFF-BLACK, ROCK N' ROLL WORLD TOUR OFF-BLACK, PEACE AND HAPPINESS WHITE, BELIEVE IN YOURSELF WHITE, SOHO TENNIS ROYAL BLUE, YIN-YANG SKY RED, MALIBU GRADIENT CROP WHITE, HAPPY CROP ROYAL BLUE, LET'S DANCE OFF-BLACK, FRIENDS GREENWICH VILLAGE OFF-BLACK, BEVERLY HILLS AIR BRUSH WHITE, JANIS JOPLIN PEACE &amp; LOVE MINERAL GREY, LIGHTENING TIGER OFF-BLACK, ALL WE NEED IS LOVE WHITE, HAMPTONS HOUSE CROP TOP IVORY, SMILE MORE HEATHER GREY, PARDON MY FRENCH PULLOVER WHITE, DAVID BOWIE 1974 WORLD TOUR WHITE, LEOPARD HAPPY FACE CROP PULLOVER OFF-BLACK, LEOPARD HAPPY FACE PULLOVER OFF-BLACK</t>
         </is>
       </c>
     </row>
